--- a/biology/Zoologie/Endémisme_en_Corse/Endémisme_en_Corse.xlsx
+++ b/biology/Zoologie/Endémisme_en_Corse/Endémisme_en_Corse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>End%C3%A9misme_en_Corse</t>
+          <t>Endémisme_en_Corse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme la plupart des îles méditerranéennes (Sardaigne, Baléares...), la Corse présente un fort taux d'endémisme. Certains taxons sont propres à l'île (espèces ou sous-espèces endémiques strictes) tandis que d'autres ont une aire de répartition un peu plus vaste s'expliquant par l'histoire géologique récente (par exemple les endémiques dites «cyrno-sardes»).
-La préservation d'un grand nombre de ces taxons, certains à forte valeur patrimoniale[1], passe par la mise en place d'espaces naturels protégés[2], tels que le Parc naturel régional de Corse ou encore diverses réserves naturelles et de biosphère. Certaines de ces espèces et sous-espèces sont par ailleurs protégées au titre de la loi française[3] et de conventions internationales.
+La préservation d'un grand nombre de ces taxons, certains à forte valeur patrimoniale, passe par la mise en place d'espaces naturels protégés, tels que le Parc naturel régional de Corse ou encore diverses réserves naturelles et de biosphère. Certaines de ces espèces et sous-espèces sont par ailleurs protégées au titre de la loi française et de conventions internationales.
 Voici une liste des taxons endémiques de la Corse dont les noms scientifiques sont classés selon l'ordre alphabétique. S'ils sont connus, les noms vernaculaires français et corses (en italique) sont mentionnés. Figurent également entre parenthèses la répartition géographique lorsqu'elle inclut des îles ou régions voisines, ainsi que la période supposée d'extinction pour les taxons récemment disparus.
 Cette liste n'est pas exhaustive et demande à être complétée.
 </t>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>End%C3%A9misme_en_Corse</t>
+          <t>Endémisme_en_Corse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,12 +526,52 @@
           <t>Flore</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La flore endémique est estimée à 280 espèces ou sous-espèces (environ 11 % des taxons de l'île[4]), dont 140 existent uniquement en Corse[5]. Ce nombre est toutefois amené à varier au gré des travaux des botanistes, par suite de révisions taxinomiques ou par la découverte de nouvelles espèces. 
-Angiospermes
-Monocotylédones
-Acis longifolia - Nivéole à longues feuilles.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La flore endémique est estimée à 280 espèces ou sous-espèces (environ 11 % des taxons de l'île), dont 140 existent uniquement en Corse. Ce nombre est toutefois amené à varier au gré des travaux des botanistes, par suite de révisions taxinomiques ou par la découverte de nouvelles espèces. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Endémisme_en_Corse</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/End%C3%A9misme_en_Corse</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Angiospermes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Monocotylédones</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Acis longifolia - Nivéole à longues feuilles.
 Allium corsicum - Ail de Corse.
 Colchicum arenasii
 Colchicum corsicum - Colchique de Corse (Corse, Archipel de La Maddalena).
@@ -532,9 +584,47 @@
 Romulea corsica - Romulée de Corse.
 Romulea revelieri - Romulée de Revelière (Corse, Sardaigne, Capraia).
 Serapias nurrica - Orchidée de Nurra (Corse, Sardaigne, Minorque).
-Trisetum conradiae - Trisète de Marcelle Conrad.
-Dicotylédones
-Aconitum corsicum - Aconit de Corse, acunitu corsu.
+Trisetum conradiae - Trisète de Marcelle Conrad.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Endémisme_en_Corse</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/End%C3%A9misme_en_Corse</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Angiospermes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Aconitum corsicum - Aconit de Corse, acunitu corsu.
 Alnus cordata - Aulne cordé, piralzu (Corse, Calabre).
 Alnus viridis subsp. suaveolens - Aulne odorant, bassu.
 Alyssum robertianum - Passerage de Robert.
@@ -557,7 +647,7 @@
 Doronicum corsicum - Doronic de Corse.
 Draba loiseleuri - Drave de Loiseleur.
 Erigeron paolii - Vergerette de Paoli.
-Erodium corsicum - Bec-de-grue corse, géranium de Corse (Corse, Sardaigne)[6].
+Erodium corsicum - Bec-de-grue corse, géranium de Corse (Corse, Sardaigne).
 Euphorbia corsica - Euphorbe de Corse.
 Euphorbia pithyusa cupanii - Euphorbe de Cupani (Corse, Sardaigne, Sicile).
 Galium corsicum - Caille-lait de Corse, gaillet corse, caghjalatte corsu (Corse, Sardaigne).
@@ -606,44 +696,115 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>End%C3%A9misme_en_Corse</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/End%C3%A9misme_en_Corse</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Endémisme_en_Corse</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/End%C3%A9misme_en_Corse</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Faune</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>De nombreuses espèces animales endémiques se sont éteintes ou raréfiées peu après la colonisation de l'île par l'homme du fait de la chasse, de l'introduction (volontaire ou non) d'espèces concurrentes, ou encore de la modification des milieux naturels par les pratiques agricoles[7]. D'autres se sont maintenues jusqu'à nos jours.
-Annélides (vers de terre)
-Les Scherotheca (Corsicadrilus) :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreuses espèces animales endémiques se sont éteintes ou raréfiées peu après la colonisation de l'île par l'homme du fait de la chasse, de l'introduction (volontaire ou non) d'espèces concurrentes, ou encore de la modification des milieux naturels par les pratiques agricoles. D'autres se sont maintenues jusqu'à nos jours.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Endémisme_en_Corse</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/End%C3%A9misme_en_Corse</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Annélides (vers de terre)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les Scherotheca (Corsicadrilus) :
 Scherotheca albomaculata
 Scherotheca corsicana
 Scherotheca corsicana corsicana
 Scherotheca corsicana magna
 Scherotheca corsicana popi
 Scherotheca omodeoi
-Scherotheca portonana
-Mollusques
-Cochlodina meisneriana
+Scherotheca portonana</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Endémisme_en_Corse</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/End%C3%A9misme_en_Corse</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mollusques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cochlodina meisneriana
 Cyrnotheba corsica
 Hypnophila remyi - Brillante corse.
 Oxychilus adjaciensis
@@ -651,9 +812,43 @@
 Solatopupa guidoni (Corse, Sardaigne, Elbe)
 Tacheocampylaea cyrniaca
 Tacheocampylaea raspailii - Escargot de Raspail.
-Tyrrhenaria ceratina - Escargot de Corse.
-Lépidoptères
-Spialia therapne - Hespérie tyrrhénienne (Corse, Sardaigne).
+Tyrrhenaria ceratina - Escargot de Corse.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Endémisme_en_Corse</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/End%C3%A9misme_en_Corse</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Lépidoptères</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Spialia therapne - Hespérie tyrrhénienne (Corse, Sardaigne).
 Papilio hospiton - Porte-queue de Corse (Corse, Sardaigne).
 Euchloe insularis - Marbré tyrrhénien (Corse, Sardaigne).
 Lysandra coridon nufrellensis - Bleu-nacré de Corse.
@@ -664,34 +859,272 @@
 Lasiommata paramegaera - Mégère corse (Corse, Sardaigne, Caprera, Capraia, Montecristo).
 Coenonympha corinna - Fadet tyrrhénien (Corse, Sardaigne, Capraia).
 Hipparchia aristaeus aristaeus - Agreste flamboyant (Corse, Sardaigne, Elbe, Giglio, Capraia).
-Hipparchia neomiris - Mercure tyrrhénien (Corse, Sardaigne, Elbe, Capraia).
-Orthoptères
-Antaxius bouvieri - Antaxie corse.
+Hipparchia neomiris - Mercure tyrrhénien (Corse, Sardaigne, Elbe, Capraia).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Endémisme_en_Corse</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/End%C3%A9misme_en_Corse</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Orthoptères</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Antaxius bouvieri - Antaxie corse.
 Dolichopoda bormansi - Dolichopode d'Évisa.
 Dolichopoda cyrnensis - Dolichopode de Venaco.
-Steropleurus chopardi - Éphippigère corse.
-Arachnides
-Cteniza sauvagesi - Mygale noire de Corse (Corse, Sardaigne).
-Poissons
-Salmo trutta macrostigma - Truite macrostigma.
-Amphibiens
-Discoglossus montalentii - Discoglosse corse.
+Steropleurus chopardi - Éphippigère corse.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Endémisme_en_Corse</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/End%C3%A9misme_en_Corse</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Arachnides</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Cteniza sauvagesi - Mygale noire de Corse (Corse, Sardaigne).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Endémisme_en_Corse</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/End%C3%A9misme_en_Corse</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Poissons</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Salmo trutta macrostigma - Truite macrostigma.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Endémisme_en_Corse</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/End%C3%A9misme_en_Corse</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Amphibiens</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Discoglossus montalentii - Discoglosse corse.
 Discoglossus sardus - Discoglosse sarde (Corse, Sardaigne, Îlots ouest-méditerranéens).
 Euproctus montanus - Euprocte corse.
-Salamandra corsica - Salamandre de Corse.
-Reptiles
-Archaeolacerta bedriagae - Lézard de Bédriaga (Corse, Sardaigne).
+Salamandra corsica - Salamandre de Corse.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Endémisme_en_Corse</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/End%C3%A9misme_en_Corse</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Reptiles</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Archaeolacerta bedriagae - Lézard de Bédriaga (Corse, Sardaigne).
 Algyroides fitzingeri - Algyroïde de Fitzinger (Corse, Sardaigne).
 Natrix helvetica corsa - Couleuvre à collier corse.
-Euleptes europaea - Phyllodactyle d'Europe (Corse, Sardaigne, Ilôts ouest méditerranéens).
-Oiseaux
-†Bubo insularis - Hibou nain corso-sarde (éteint au Pléistocène).
-Sitta whiteheadi - Sittelle corse.
-Mammifères
-Cervus elaphus corsicanus - Cerf élaphe de Corse, u cervu.
-†Megaloceros cazioti - Cerf de Caziot (Corse, Sardaigne ; éteint au début de l'Holocène[8]).
+Euleptes europaea - Phyllodactyle d'Europe (Corse, Sardaigne, Ilôts ouest méditerranéens).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Endémisme_en_Corse</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/End%C3%A9misme_en_Corse</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>†Bubo insularis - Hibou nain corso-sarde (éteint au Pléistocène).
+Sitta whiteheadi - Sittelle corse.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Endémisme_en_Corse</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/End%C3%A9misme_en_Corse</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Cervus elaphus corsicanus - Cerf élaphe de Corse, u cervu.
+†Megaloceros cazioti - Cerf de Caziot (Corse, Sardaigne ; éteint au début de l'Holocène).
 †Asoriculus corsicanus - Musaraigne géante (éteinte au Moyen Âge).
-†Talpa tyrrhenica - Taupe tyrrhénienne (Corse, Sardaigne ; éteinte au Pléistocène[9]).
+†Talpa tyrrhenica - Taupe tyrrhénienne (Corse, Sardaigne ; éteinte au Pléistocène).
 Mustela nivalis boccamela - Belette corse, a bellula.
 †Cynotherium sardous - Dhole de Sardaigne (Corse, Sardaigne ; éteint à la fin du Pléistocène).
 Ovis gmelini musimon - Mouflon corse.
